--- a/Code Catalog.xlsx
+++ b/Code Catalog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Schia\Documents\Academics\#Research\Java Security Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8319D34-8F73-4E60-A4E1-BBF147CAA791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663CA185-CFE5-479A-9EAC-AB012CD22708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14865" yWindow="0" windowWidth="13935" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="6135" windowWidth="13935" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="369">
   <si>
     <t>Safe?</t>
   </si>
   <si>
-    <t>Violation with line number</t>
-  </si>
-  <si>
     <t>Stack()</t>
   </si>
   <si>
@@ -45,27 +42,15 @@
     <t>Stack(Stack copy)</t>
   </si>
   <si>
-    <t>33: DCL01</t>
-  </si>
-  <si>
     <t>void add(Transformation add)</t>
   </si>
   <si>
-    <t>40: DCL01</t>
-  </si>
-  <si>
     <t>void add(MoreContents more)</t>
   </si>
   <si>
-    <t>47: DCL01</t>
-  </si>
-  <si>
     <t>void refill(Stack prefix, MoreContentsHolder holder, int index)</t>
   </si>
   <si>
-    <t>60: DCL01</t>
-  </si>
-  <si>
     <t>public Timer(int sampleCount)</t>
   </si>
   <si>
@@ -81,9 +66,6 @@
     <t>62: DCL01</t>
   </si>
   <si>
-    <t>67: DCL01</t>
-  </si>
-  <si>
     <t>public boolean running()</t>
   </si>
   <si>
@@ -93,9 +75,6 @@
     <t xml:space="preserve">public void stop(long partitionCount, long rowCount, boolean error) </t>
   </si>
   <si>
-    <t>82: DCL01</t>
-  </si>
-  <si>
     <t>public synchronized void close()</t>
   </si>
   <si>
@@ -430,6 +409,729 @@
   </si>
   <si>
     <t>public void encode(AuthChallenge challenge, ByteBuf dest, int version)</t>
+  </si>
+  <si>
+    <t>Violation(s) with line number</t>
+  </si>
+  <si>
+    <t>40: DCL01, 44: NUM00</t>
+  </si>
+  <si>
+    <t>67: DCL01, 73: NUM00</t>
+  </si>
+  <si>
+    <t>60: NUM00</t>
+  </si>
+  <si>
+    <t>121: NUM00</t>
+  </si>
+  <si>
+    <t>27: DCL01, 29: EXP02</t>
+  </si>
+  <si>
+    <t>56: DCL01, 59: NUM00, NUM01</t>
+  </si>
+  <si>
+    <t>private int p(int index)</t>
+  </si>
+  <si>
+    <t>74: NUM00, NUM02</t>
+  </si>
+  <si>
+    <t>82: DCL01, 94: NUM00, 95: NUM00, 96: NUM00, 97: NUM00, 99: NUM00</t>
+  </si>
+  <si>
+    <t>private int index(int count)</t>
+  </si>
+  <si>
+    <t>105: NUM00, NUM01</t>
+  </si>
+  <si>
+    <t>small\cassandra\ActiveRepairService.java:80</t>
+  </si>
+  <si>
+    <t>80: OBJ10</t>
+  </si>
+  <si>
+    <t>public static CassandraVersion SUPPORTS_GLOBAL_PREPARE_FLAG_VERSION = new CassandraVersion("2.2.1")</t>
+  </si>
+  <si>
+    <t>49: EXP01</t>
+  </si>
+  <si>
+    <t>46: EXP01</t>
+  </si>
+  <si>
+    <t>small\cassandra\ActiveRepairService.java:98</t>
+  </si>
+  <si>
+    <t>public ActiveRepairService(IFailureDetector failureDetector, Gossiper gossiper)</t>
+  </si>
+  <si>
+    <t>100: EXP01, 101: EXP01</t>
+  </si>
+  <si>
+    <t>public static Set&lt;InetAddress&gt; getNeighbors(String keyspaceName, Range&lt;Token&gt; toRepair, Collection&lt;String&gt; dataCenters, Collection&lt;String&gt; hosts)</t>
+  </si>
+  <si>
+    <t>EXP01</t>
+  </si>
+  <si>
+    <t>public synchronized UUID prepareForRepair(UUID parentRepairSession, Set&lt;InetAddress&gt; endpoints, RepairOption options, List&lt;ColumnFamilyStore&gt; columnFamilyStores)</t>
+  </si>
+  <si>
+    <t>small\cassandra\ActiveRepairService.java:238</t>
+  </si>
+  <si>
+    <t>small\cassandra\ActiveRepairService.java:167</t>
+  </si>
+  <si>
+    <t>small\cassandra\ActiveRepairService.java:308</t>
+  </si>
+  <si>
+    <t>small\cassandra\ActiveRepairService.java:328</t>
+  </si>
+  <si>
+    <t>public Set&lt;SSTableReader&gt; currentlyRepairing(UUID cfId, UUID parentRepairSession)</t>
+  </si>
+  <si>
+    <t>public synchronized ListenableFuture finishParentSession(UUID parentSession, Set&lt;InetAddress&gt; neighbors, Collection&lt;Range&lt;Token&gt;&gt; successfulRanges)</t>
+  </si>
+  <si>
+    <t>EXP01, NUM00</t>
+  </si>
+  <si>
+    <t>small\cassandra\AggregateFcts.java:37</t>
+  </si>
+  <si>
+    <t>public static Collection&lt;AggregateFunction&gt; all()</t>
+  </si>
+  <si>
+    <t>37: OBJ03</t>
+  </si>
+  <si>
+    <t>small\cassandra\AggregateFcts.java:873</t>
+  </si>
+  <si>
+    <t>public static AggregateFunction makeCountFunction(AbstractType&lt;?&gt; inputType)</t>
+  </si>
+  <si>
+    <t>854: NUM00</t>
+  </si>
+  <si>
+    <t>48: EXP01</t>
+  </si>
+  <si>
+    <t>public AlterKeySpaceStatement(String name, KeyspaceAttributes attrs)</t>
+  </si>
+  <si>
+    <t>small\cassandra\AlterkeyspaceStatement.java: 35</t>
+  </si>
+  <si>
+    <t>small\cassandra\AlterRoleStatement.java: 33</t>
+  </si>
+  <si>
+    <t>public AlterRoleStatement(RoleName name, RoleOptions opts)</t>
+  </si>
+  <si>
+    <t>35: EXP01</t>
+  </si>
+  <si>
+    <t>small\cassandra\AlterRoleStatement.java: 39</t>
+  </si>
+  <si>
+    <t>public void validate(ClientState state) throws RequestValidationException</t>
+  </si>
+  <si>
+    <t>47: EXP01</t>
+  </si>
+  <si>
+    <t>public ResultMessage execute(ClientState state) throws RequestValidationException, RequestExecutionException</t>
+  </si>
+  <si>
+    <t>small\cassandra\AlterRoleStatement.java: 84</t>
+  </si>
+  <si>
+    <t>87: EXP01</t>
+  </si>
+  <si>
+    <t>small\cassandra\AlterTableStatement.java: 88</t>
+  </si>
+  <si>
+    <t>public Event.SchemaChange announceMigration(boolean isLocalOnly) throws RequestValidationException</t>
+  </si>
+  <si>
+    <t>91: EXP01, 106: EXP01, 112: EXP01, 218: EXP01, 248: EXP01, 238: EXP01, 305: EXP01</t>
+  </si>
+  <si>
+    <t>protected AlterTypeStatement(UTName name)</t>
+  </si>
+  <si>
+    <t>small\cassandra\AlterTypeStatement.java: 37</t>
+  </si>
+  <si>
+    <t>small\cassandra\AlterTypeStatement.java: 44</t>
+  </si>
+  <si>
+    <t>public void prepareKeyspace(ClientState state) throws InvalidRequestException</t>
+  </si>
+  <si>
+    <t>46: EXP01, 49: EXP01</t>
+  </si>
+  <si>
+    <t>small\cassandra\AlterTypeStatement.java: 55</t>
+  </si>
+  <si>
+    <t>public static AlterTypeStatement addition(UTName name, ColumnIdentifier fieldName, CQL3Type.Raw type)</t>
+  </si>
+  <si>
+    <t>small\cassandra\AlterTypeStatement.java: 60</t>
+  </si>
+  <si>
+    <t>public static AlterTypeStatement alter(UTName name, ColumnIdentifier fieldName, CQL3Type.Raw type)</t>
+  </si>
+  <si>
+    <t>public static AlterTypeStatement renames(UTName name, Map&lt;ColumnIdentifier, ColumnIdentifier&gt; renames)</t>
+  </si>
+  <si>
+    <t>small\cassandra\AlterTypeStatements.java: 65</t>
+  </si>
+  <si>
+    <t>small\cassandra\AlterTypeStatements.java: 70</t>
+  </si>
+  <si>
+    <t>public void checkAccess(ClientState state) throws UnauthorizedException, InvalidRequestException</t>
+  </si>
+  <si>
+    <t>small\cassandra\ActiveRepairService.java: 109</t>
+  </si>
+  <si>
+    <t>public RepairSession submitRepairSession(UUID parentRepairSession,</t>
+  </si>
+  <si>
+    <t>public synchronized void terminateSessions()</t>
+  </si>
+  <si>
+    <t>small\cassandra\ActiveRepairService.java: 148</t>
+  </si>
+  <si>
+    <t>small\cassandra\ActiveRepairService.java: 303</t>
+  </si>
+  <si>
+    <t>small\cassandra\Timer.java: 103</t>
+  </si>
+  <si>
+    <t>small\cassandra\Timer.java: 72</t>
+  </si>
+  <si>
+    <t>public void registerParentRepairSession(UUID parentRepairSession, List&lt;ColumnFamilyStore&gt; columnFamilyStores, Collection&lt;Range&lt;Token&gt;&gt; ranges, boolean isIncremental, long timestamp, boolean isGlobal)</t>
+  </si>
+  <si>
+    <t>public ParentRepairSession getParentRepairSession(UUID parentSessionId)</t>
+  </si>
+  <si>
+    <t>small\cassandra\ActiveRepairService.java: 341</t>
+  </si>
+  <si>
+    <t>small\cassandra\ActiveRepairService.java: 346</t>
+  </si>
+  <si>
+    <t>public synchronized ParentRepairSession removeParentRepairSession(UUID parentSessionId)</t>
+  </si>
+  <si>
+    <t>public ListenableFuture&lt;List&lt;Object&gt;&gt; doAntiCompaction(final UUID parentRepairSession, Collection&lt;Range&lt;Token&gt;&gt; successfulRanges)</t>
+  </si>
+  <si>
+    <t>375: EXP01,</t>
+  </si>
+  <si>
+    <t>EXP01, 315: EXP00</t>
+  </si>
+  <si>
+    <t>small\cassandra\ActiveRepairService.java: 359</t>
+  </si>
+  <si>
+    <t>small\cassandra\ActiveRepairService.java: 398</t>
+  </si>
+  <si>
+    <t>public void handleMessage(InetAddress endpoint, RepairMessage message)</t>
+  </si>
+  <si>
+    <t>400: EXP01, 404: EXP01</t>
+  </si>
+  <si>
+    <t>small\cassandra\ActiveRepairService.java: 420</t>
+  </si>
+  <si>
+    <t>public static class ParentRepairSession</t>
+  </si>
+  <si>
+    <t>420: OBJ08</t>
+  </si>
+  <si>
+    <t>public ParentRepairSession(List&lt;ColumnFamilyStore&gt; columnFamilyStores, Collection&lt;Range&lt;Token&gt;&gt; ranges, boolean isIncremental, long repairedAt, boolean isGlobal)</t>
+  </si>
+  <si>
+    <t>small\cassandra\ActiveRepairService.java: 429</t>
+  </si>
+  <si>
+    <t>431: EXP01</t>
+  </si>
+  <si>
+    <t>public void addSSTables(UUID cfId, Set&lt;SSTableReader&gt; sstables)</t>
+  </si>
+  <si>
+    <t>small\cassandra\ActiveRepairService.java: 439</t>
+  </si>
+  <si>
+    <t>small\cassandra\ActiveRepairService.java: 449</t>
+  </si>
+  <si>
+    <t>public synchronized Refs&lt;SSTableReader&gt; getAndReferenceSSTables(UUID cfId)</t>
+  </si>
+  <si>
+    <t>public long getRepairedAt()</t>
+  </si>
+  <si>
+    <t>small\cassandra\ActiveRepairService.java: 472</t>
+  </si>
+  <si>
+    <t>small\cassandra\ActiveRepairService.java: 479</t>
+  </si>
+  <si>
+    <t>small\cassandra\AggregateFcts.java: 745</t>
+  </si>
+  <si>
+    <t>public static AggregateFunction makeMaxFunction(final AbstractType&lt;?&gt; inputType)</t>
+  </si>
+  <si>
+    <t>small\cassandra\AggregateFcts.java: 786</t>
+  </si>
+  <si>
+    <t>public static AggregateFunction makeMinFunction(final AbstractType&lt;?&gt; inputType)</t>
+  </si>
+  <si>
+    <t>745: OBJ10, 767:EXP01</t>
+  </si>
+  <si>
+    <t>786: OBJ10, 808: EXP01</t>
+  </si>
+  <si>
+    <t>small\cassandra\AggregateFcts.java:827</t>
+  </si>
+  <si>
+    <t>827: OBJ10</t>
+  </si>
+  <si>
+    <t>small\cassandra\AggregateFcts.java: 847</t>
+  </si>
+  <si>
+    <t>public void addInput(int protocolVersion, List&lt;ByteBuffer&gt; values)</t>
+  </si>
+  <si>
+    <t>small\cassandra\Blocker.java: 30</t>
+  </si>
+  <si>
+    <t>public void block(boolean block)</t>
+  </si>
+  <si>
+    <t>small\cassandra\Blocker.java: 47</t>
+  </si>
+  <si>
+    <t>public void ask()</t>
+  </si>
+  <si>
+    <t>public final static Comparator&lt;Cell&gt; comparator = (c1, c2) -&gt;</t>
+  </si>
+  <si>
+    <t>small\cassandra\Cell.java: 44</t>
+  </si>
+  <si>
+    <t>46: EXP01, 50: EXP01, 51: EXP01</t>
+  </si>
+  <si>
+    <t>Lambda expression</t>
+  </si>
+  <si>
+    <t>small\cassandra\Batch.java: 46</t>
+  </si>
+  <si>
+    <t>private Batch(UUID id, long creationTime, Collection&lt;Mutation&gt; decodedMutations, Collection&lt;ByteBuffer&gt; encodedMutations)</t>
+  </si>
+  <si>
+    <t>public static Batch createLocal(UUID id, long creationTime, Collection&lt;Mutation&gt; mutations)</t>
+  </si>
+  <si>
+    <t>small\cassandra\Batch.java: 58</t>
+  </si>
+  <si>
+    <t>small\cassandra\Batch.java: 76</t>
+  </si>
+  <si>
+    <t>78: NUM00</t>
+  </si>
+  <si>
+    <t>static final class Serializer implements IVersionedSerializer&lt;Batch&gt;</t>
+  </si>
+  <si>
+    <t>small\cassandra\Batch.java: 81</t>
+  </si>
+  <si>
+    <t>87: NUM00, 88: NUM00, EXP01 90: NUM00, EXP01 91: EXP01, 94: NUM00, 95: NUM00</t>
+  </si>
+  <si>
+    <t>small\cassandra\Batch.java: 101</t>
+  </si>
+  <si>
+    <t>public void serialize(Batch batch, DataOutputPlus out, int version) throws IOException</t>
+  </si>
+  <si>
+    <t>103: EXP01, 105: EXP01, 106: EXP01, 108: EXP01, 109: EXP01, 111: EXP01</t>
+  </si>
+  <si>
+    <t>small\cassandra\Batch.java: 116</t>
+  </si>
+  <si>
+    <t>public Batch deserialize(DataInputPlus in, int version) throws IOException</t>
+  </si>
+  <si>
+    <t>119: EXP01</t>
+  </si>
+  <si>
+    <t>private static Collection&lt;ByteBuffer&gt; readEncodedMutations(DataInputPlus in) throws IOException</t>
+  </si>
+  <si>
+    <t>small\cassandra\Batch.java: 130</t>
+  </si>
+  <si>
+    <t>132: EXP01</t>
+  </si>
+  <si>
+    <t>Does not check if i &lt; 0 in loop</t>
+  </si>
+  <si>
+    <t>private static Collection&lt;Mutation&gt; decodeMutations(DataInputPlus in, int version) throws IOException</t>
+  </si>
+  <si>
+    <t>small\cassandra\Batch.java: 141</t>
+  </si>
+  <si>
+    <t>143: EXP01, 148: EXP01</t>
+  </si>
+  <si>
+    <t>Does not check if I &lt; 0 in loop</t>
+  </si>
+  <si>
+    <t>small\cassandra\Stack.java: 20</t>
+  </si>
+  <si>
+    <t>private MoreContentsHolder(MoreContents moreContents, int length)</t>
+  </si>
+  <si>
+    <t>33: DCL01, 35: EXP01, 36: EXP01, 37: EXP01</t>
+  </si>
+  <si>
+    <t>47: DCL01, 49: NUM00, 50: NUM00</t>
+  </si>
+  <si>
+    <t>small\cassandra\Stack.java: 53</t>
+  </si>
+  <si>
+    <t>private static &lt;E&gt; E[] resize(E[] array)</t>
+  </si>
+  <si>
+    <t>55: EXP01</t>
+  </si>
+  <si>
+    <t>60: DCL01, 64: EXP01, 65: EXP01, 66: NUM00, EXP01, 67: EXP01</t>
+  </si>
+  <si>
+    <t>small\cassandra\Stack.java: 70</t>
+  </si>
+  <si>
+    <t>private static &lt;E&gt; E[] splice(E[] prefix, int prefixCount, E[] keep, int keepFrom, int keepTo)</t>
+  </si>
+  <si>
+    <t>73: NUM00, 74: EXP01</t>
+  </si>
+  <si>
+    <t>public AuthResponse decode(ByteBuf body, int version)</t>
+  </si>
+  <si>
+    <t>small\cassandra\AuthResponse.java: 38</t>
+  </si>
+  <si>
+    <t>public void encode(AuthResponse response, ByteBuf dest, int version)</t>
+  </si>
+  <si>
+    <t>small\cassandra\AuthResponse.java: 49</t>
+  </si>
+  <si>
+    <t>51: EXP01</t>
+  </si>
+  <si>
+    <t>public int encodedSize(AuthResponse response, int version)</t>
+  </si>
+  <si>
+    <t>small\cassandra\AuthResponse.java: 54</t>
+  </si>
+  <si>
+    <t>56: EXP01</t>
+  </si>
+  <si>
+    <t>public Response execute(QueryState queryState)</t>
+  </si>
+  <si>
+    <t>small\cassandra\AuthResponse.java: 70</t>
+  </si>
+  <si>
+    <t>public Client(String host, int port, int version, ClientEncryptionOptions encryptionOptions)</t>
+  </si>
+  <si>
+    <t>small\cassandra\Client.java: 46</t>
+  </si>
+  <si>
+    <t>public void run() throws IOException</t>
+  </si>
+  <si>
+    <t>small\cassandra\Client.java: 52</t>
+  </si>
+  <si>
+    <t>private Message.Request parseLine(String line)</t>
+  </si>
+  <si>
+    <t>small\cassandra\Client.java: 97</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>103: STR02, 111: STR02, 121: EXP01, 127: EXP01, 128: EXP01, 142: EXP01, 196: EXP01</t>
+  </si>
+  <si>
+    <t>private byte[] encodeCredentialsForSasl(Map&lt;String, String&gt; credentials)</t>
+  </si>
+  <si>
+    <t>small\cassandra\Client.java: 227</t>
+  </si>
+  <si>
+    <t>231: EXP01, NUM00, 234: EXP01, NUM00, 235: EXP01, NUM00</t>
+  </si>
+  <si>
+    <t>public static void main(String[] args) throws Exception</t>
+  </si>
+  <si>
+    <t>small\cassandra\Client.java: 239</t>
+  </si>
+  <si>
+    <t>Has throws Exception on main method?</t>
+  </si>
+  <si>
+    <t>private final Connection.Factory connectionFactory = new Connection.Factory()</t>
+  </si>
+  <si>
+    <t>small\cassandra\SimpleClient.java: 85</t>
+  </si>
+  <si>
+    <t>public SimpleClient(String host, int port, int version, ClientEncryptionOptions encryptionOptions)</t>
+  </si>
+  <si>
+    <t>small\cassandra\SimpleClient.java: 93</t>
+  </si>
+  <si>
+    <t>public SimpleClient(String host, int port, ClientEncryptionOptions encryptionOptions)</t>
+  </si>
+  <si>
+    <t>small\cassandra\SimpleClient.java: 101</t>
+  </si>
+  <si>
+    <t>public SimpleClient(String host, int port, int version)</t>
+  </si>
+  <si>
+    <t>small\cassandra\SimpleClient.java: 106</t>
+  </si>
+  <si>
+    <t>public SimpleClient(String host, int port)</t>
+  </si>
+  <si>
+    <t>small\cassandra\SimpleClient.java: 111</t>
+  </si>
+  <si>
+    <t>public void connect(boolean useCompression) throws IOException</t>
+  </si>
+  <si>
+    <t>small\cassandra\SimpleClient.java: 116</t>
+  </si>
+  <si>
+    <t>public void setEventHandler(EventHandler eventHandler)</t>
+  </si>
+  <si>
+    <t>small\cassandra\SimpleClient.java: 130</t>
+  </si>
+  <si>
+    <t>protected void establishConnection() throws IOException</t>
+  </si>
+  <si>
+    <t>small\cassandra\SimpleClient.java: 135</t>
+  </si>
+  <si>
+    <t>public void login(Map&lt;String, String&gt; credentials)</t>
+  </si>
+  <si>
+    <t>small\cassandra\SimpleClient.java: 163</t>
+  </si>
+  <si>
+    <t>public ResultMessage execute(String query, ConsistencyLevel consistency)</t>
+  </si>
+  <si>
+    <t>small\cassandra\SimpleClient.java: 170</t>
+  </si>
+  <si>
+    <t>public ResultMessage execute(String query, List&lt;ByteBuffer&gt; values, ConsistencyLevel consistencyLevel)</t>
+  </si>
+  <si>
+    <t>small\cassandra\SimpleClient.java: 175</t>
+  </si>
+  <si>
+    <t>public ResultMessage.Prepared prepare(String query)</t>
+  </si>
+  <si>
+    <t>small\cassandra\SimpleClient.java: 182</t>
+  </si>
+  <si>
+    <t>public ResultMessage executePrepared(byte[] statementId, List&lt;ByteBuffer&gt; values, ConsistencyLevel consistency)</t>
+  </si>
+  <si>
+    <t>small\cassandra\SimpleClient.java: 189</t>
+  </si>
+  <si>
+    <t>small\cassandra\SimpleClient.java: 196</t>
+  </si>
+  <si>
+    <t>public void close()</t>
+  </si>
+  <si>
+    <t>Stopped auditing SimpleClient here</t>
+  </si>
+  <si>
+    <t>public ByteBuffer name;</t>
+  </si>
+  <si>
+    <t>small\cassandra\Column.java: 78</t>
+  </si>
+  <si>
+    <t>78: OBJ01</t>
+  </si>
+  <si>
+    <t>79: OBJ01</t>
+  </si>
+  <si>
+    <t>80: OBJ01</t>
+  </si>
+  <si>
+    <t>81: OBJ01</t>
+  </si>
+  <si>
+    <t>small\cassandra\Column.java: 79</t>
+  </si>
+  <si>
+    <t>small\cassandra\Column.java: 80</t>
+  </si>
+  <si>
+    <t>small\cassandra\Column.java: 81</t>
+  </si>
+  <si>
+    <t>public ByteBuffer value;</t>
+  </si>
+  <si>
+    <t>public int ttl;</t>
+  </si>
+  <si>
+    <t>public enum _Fields implements org.apache.thrift.TFieldIdEnum</t>
+  </si>
+  <si>
+    <t>small\cassandra\Column.java: 84</t>
+  </si>
+  <si>
+    <t>public static _Fields findByThriftId(int fieldId)</t>
+  </si>
+  <si>
+    <t>small\cassandra\Column.java: 101</t>
+  </si>
+  <si>
+    <t>Stopped auditing Column here</t>
+  </si>
+  <si>
+    <t>private WaitForTargetUncertainty(double targetUncertainty, int minMeasurements, int maxMeasurements)</t>
+  </si>
+  <si>
+    <t>small\cassandra\Uncertainty.java: 47</t>
+  </si>
+  <si>
+    <t>void await() throws InterruptedException</t>
+  </si>
+  <si>
+    <t>small\cassandra\Uncertainty.java: 54</t>
+  </si>
+  <si>
+    <t>public void update(double value)</t>
+  </si>
+  <si>
+    <t>small\cassandra\Uncertainty.java: 61</t>
+  </si>
+  <si>
+    <t>64: NUM00, NUM07, NUM08, 65: NUM00, NUM07, NUM08, 66: NUM00, NUM07, NUM08, NUM02, 68: NUM00, NUM07, NUM08, NUM02</t>
+  </si>
+  <si>
+    <t>public void await(double targetUncertainty, int minMeasurements, int maxMeasurements) throws InterruptedException</t>
+  </si>
+  <si>
+    <t>small\cassandra\Uncertainty.java: 81</t>
+  </si>
+  <si>
+    <t>small\cassandra\Uncertainty.java: 88</t>
+  </si>
+  <si>
+    <t>public double getUncertainty()</t>
+  </si>
+  <si>
+    <t>public void wakeAll()</t>
+  </si>
+  <si>
+    <t>small\cassandra\Uncertainty.java: 93</t>
+  </si>
+  <si>
+    <t>public static long currentTimeMillis()</t>
+  </si>
+  <si>
+    <t>small\cassandra\ApproximateTime.java: 51</t>
+  </si>
+  <si>
+    <t>public static long precision()</t>
+  </si>
+  <si>
+    <t>small\cassandra\ApproximateTime.java: 56</t>
+  </si>
+  <si>
+    <t>58: NUM00</t>
+  </si>
+  <si>
+    <t>small\cassandra\BitUtil.java: 26</t>
+  </si>
+  <si>
+    <t>public static int pop(long x)</t>
+  </si>
+  <si>
+    <t>41: NUM00, NUM01, 42: NUM00, NUM01, 43: NUM00, NUM01, 44: NUM00, NUM01, 45: NUM00, NUM01, 46: NUM00, NUM01, 47: NUM00, NUM01</t>
+  </si>
+  <si>
+    <t>public static long pop_array(long A[], int wordOffset, int numWords)</t>
+  </si>
+  <si>
+    <t>small\cassandra\BitUtil: 51</t>
+  </si>
+  <si>
+    <t>66: NUM00</t>
   </si>
 </sst>
 </file>
@@ -474,10 +1176,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="B139" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,667 +1474,1854 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
         <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
         <v>57</v>
-      </c>
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
         <v>58</v>
-      </c>
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
         <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
         <v>60</v>
-      </c>
-      <c r="B26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
         <v>61</v>
-      </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
         <v>62</v>
       </c>
-      <c r="B28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>69</v>
-      </c>
       <c r="E28" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E46" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>125</v>
       </c>
-      <c r="B48" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>198</v>
+      </c>
+      <c r="B53" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>141</v>
+      </c>
+      <c r="E55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>153</v>
+      </c>
+      <c r="B59" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>166</v>
+      </c>
+      <c r="B63" t="s">
+        <v>165</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>167</v>
+      </c>
+      <c r="B64" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" t="s">
+        <v>171</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>176</v>
+      </c>
+      <c r="B67" t="s">
+        <v>177</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>181</v>
+      </c>
+      <c r="B69" t="s">
+        <v>182</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>184</v>
+      </c>
+      <c r="B70" t="s">
+        <v>185</v>
+      </c>
+      <c r="C70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>186</v>
+      </c>
+      <c r="B71" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>189</v>
+      </c>
+      <c r="B72" t="s">
+        <v>188</v>
+      </c>
+      <c r="C72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>190</v>
+      </c>
+      <c r="B73" t="s">
+        <v>191</v>
+      </c>
+      <c r="C73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>192</v>
+      </c>
+      <c r="B74" t="s">
+        <v>193</v>
+      </c>
+      <c r="C74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>195</v>
+      </c>
+      <c r="B75" t="s">
+        <v>194</v>
+      </c>
+      <c r="C75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>196</v>
+      </c>
+      <c r="B76" t="s">
+        <v>199</v>
+      </c>
+      <c r="C76" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>201</v>
+      </c>
+      <c r="B77" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>202</v>
+      </c>
+      <c r="B78" t="s">
+        <v>203</v>
+      </c>
+      <c r="C78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>207</v>
+      </c>
+      <c r="B79" t="s">
+        <v>204</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>208</v>
+      </c>
+      <c r="B80" t="s">
+        <v>209</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>211</v>
+      </c>
+      <c r="B81" t="s">
+        <v>212</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>213</v>
+      </c>
+      <c r="E81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>215</v>
+      </c>
+      <c r="B82" t="s">
+        <v>214</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>218</v>
+      </c>
+      <c r="B83" t="s">
+        <v>217</v>
+      </c>
+      <c r="C83" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>219</v>
+      </c>
+      <c r="B84" t="s">
+        <v>220</v>
+      </c>
+      <c r="C84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>222</v>
+      </c>
+      <c r="B85" t="s">
+        <v>221</v>
+      </c>
+      <c r="C85" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>223</v>
+      </c>
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>224</v>
+      </c>
+      <c r="B87" t="s">
+        <v>225</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>226</v>
+      </c>
+      <c r="B88" t="s">
+        <v>227</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>230</v>
+      </c>
+      <c r="B89" t="s">
+        <v>162</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>232</v>
+      </c>
+      <c r="B90" t="s">
+        <v>233</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>234</v>
+      </c>
+      <c r="B91" t="s">
+        <v>235</v>
+      </c>
+      <c r="C91" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>236</v>
+      </c>
+      <c r="B92" t="s">
+        <v>237</v>
+      </c>
+      <c r="C92" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>239</v>
+      </c>
+      <c r="B93" t="s">
+        <v>238</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>240</v>
+      </c>
+      <c r="E93" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>242</v>
+      </c>
+      <c r="B94" t="s">
+        <v>243</v>
+      </c>
+      <c r="C94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>245</v>
+      </c>
+      <c r="B95" t="s">
+        <v>244</v>
+      </c>
+      <c r="C95" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>246</v>
+      </c>
+      <c r="B96" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>132</v>
-      </c>
-      <c r="B50" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>130</v>
-      </c>
-      <c r="B51" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" t="s">
-        <v>128</v>
-      </c>
-      <c r="C52" t="s">
-        <v>38</v>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>249</v>
+      </c>
+      <c r="B97" t="s">
+        <v>248</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>251</v>
+      </c>
+      <c r="B98" t="s">
+        <v>252</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>254</v>
+      </c>
+      <c r="B99" t="s">
+        <v>255</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>258</v>
+      </c>
+      <c r="B100" t="s">
+        <v>257</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>259</v>
+      </c>
+      <c r="E100" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>262</v>
+      </c>
+      <c r="B101" t="s">
+        <v>261</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>263</v>
+      </c>
+      <c r="E101" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>265</v>
+      </c>
+      <c r="B102" t="s">
+        <v>266</v>
+      </c>
+      <c r="C102" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>269</v>
+      </c>
+      <c r="B103" t="s">
+        <v>270</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>273</v>
+      </c>
+      <c r="B104" t="s">
+        <v>274</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>277</v>
+      </c>
+      <c r="B105" t="s">
+        <v>276</v>
+      </c>
+      <c r="C105" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>279</v>
+      </c>
+      <c r="B106" t="s">
+        <v>278</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>282</v>
+      </c>
+      <c r="B107" t="s">
+        <v>281</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>285</v>
+      </c>
+      <c r="B108" t="s">
+        <v>284</v>
+      </c>
+      <c r="C108" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>287</v>
+      </c>
+      <c r="B109" t="s">
+        <v>286</v>
+      </c>
+      <c r="C109" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>289</v>
+      </c>
+      <c r="B110" t="s">
+        <v>288</v>
+      </c>
+      <c r="C110" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>291</v>
+      </c>
+      <c r="B111" t="s">
+        <v>290</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>295</v>
+      </c>
+      <c r="B112" t="s">
+        <v>294</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>298</v>
+      </c>
+      <c r="B113" t="s">
+        <v>297</v>
+      </c>
+      <c r="C113" t="s">
+        <v>31</v>
+      </c>
+      <c r="E113" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>301</v>
+      </c>
+      <c r="B114" t="s">
+        <v>300</v>
+      </c>
+      <c r="C114" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>303</v>
+      </c>
+      <c r="B115" t="s">
+        <v>302</v>
+      </c>
+      <c r="C115" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>305</v>
+      </c>
+      <c r="B116" t="s">
+        <v>304</v>
+      </c>
+      <c r="C116" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>307</v>
+      </c>
+      <c r="B117" t="s">
+        <v>306</v>
+      </c>
+      <c r="C117" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>309</v>
+      </c>
+      <c r="B118" t="s">
+        <v>308</v>
+      </c>
+      <c r="C118" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>311</v>
+      </c>
+      <c r="B119" t="s">
+        <v>310</v>
+      </c>
+      <c r="C119" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>313</v>
+      </c>
+      <c r="B120" t="s">
+        <v>312</v>
+      </c>
+      <c r="C120" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>315</v>
+      </c>
+      <c r="B121" t="s">
+        <v>314</v>
+      </c>
+      <c r="C121" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>317</v>
+      </c>
+      <c r="B122" t="s">
+        <v>316</v>
+      </c>
+      <c r="C122" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>319</v>
+      </c>
+      <c r="B123" t="s">
+        <v>318</v>
+      </c>
+      <c r="C123" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>321</v>
+      </c>
+      <c r="B124" t="s">
+        <v>320</v>
+      </c>
+      <c r="C124" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>323</v>
+      </c>
+      <c r="B125" t="s">
+        <v>322</v>
+      </c>
+      <c r="C125" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>325</v>
+      </c>
+      <c r="B126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C126" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>326</v>
+      </c>
+      <c r="B127" t="s">
+        <v>327</v>
+      </c>
+      <c r="C127" t="s">
+        <v>31</v>
+      </c>
+      <c r="E127" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>330</v>
+      </c>
+      <c r="B128" t="s">
+        <v>329</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s">
+        <v>331</v>
+      </c>
+      <c r="E128" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>335</v>
+      </c>
+      <c r="B129" t="s">
+        <v>338</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" t="s">
+        <v>332</v>
+      </c>
+      <c r="E129" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>336</v>
+      </c>
+      <c r="B130" t="s">
+        <v>338</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" t="s">
+        <v>333</v>
+      </c>
+      <c r="E130" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>337</v>
+      </c>
+      <c r="B131" t="s">
+        <v>339</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" t="s">
+        <v>334</v>
+      </c>
+      <c r="E131" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>341</v>
+      </c>
+      <c r="B132" t="s">
+        <v>340</v>
+      </c>
+      <c r="C132" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>343</v>
+      </c>
+      <c r="B133" t="s">
+        <v>342</v>
+      </c>
+      <c r="C133" t="s">
+        <v>31</v>
+      </c>
+      <c r="E133" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>346</v>
+      </c>
+      <c r="B134" t="s">
+        <v>345</v>
+      </c>
+      <c r="C134" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>348</v>
+      </c>
+      <c r="B135" t="s">
+        <v>347</v>
+      </c>
+      <c r="C135" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>350</v>
+      </c>
+      <c r="B136" t="s">
+        <v>349</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>353</v>
+      </c>
+      <c r="B137" t="s">
+        <v>352</v>
+      </c>
+      <c r="C137" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>354</v>
+      </c>
+      <c r="B138" t="s">
+        <v>355</v>
+      </c>
+      <c r="C138" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>357</v>
+      </c>
+      <c r="B139" t="s">
+        <v>356</v>
+      </c>
+      <c r="C139" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>359</v>
+      </c>
+      <c r="B140" t="s">
+        <v>358</v>
+      </c>
+      <c r="C140" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>361</v>
+      </c>
+      <c r="B141" t="s">
+        <v>360</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>363</v>
+      </c>
+      <c r="B142" t="s">
+        <v>364</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>367</v>
+      </c>
+      <c r="B143" t="s">
+        <v>366</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>368</v>
+      </c>
+      <c r="E143" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
